--- a/server/public/data.xlsx
+++ b/server/public/data.xlsx
@@ -403,7 +403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -442,264 +442,288 @@
       <c r="K1" t="str">
         <v>mother</v>
       </c>
+      <c r="L1" t="str">
+        <v>spelling</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>陈风</v>
+        <v>陈潮</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C2" t="str">
-        <v>广东揭阳</v>
+        <v>广东深圳</v>
       </c>
       <c r="D2" t="str">
-        <v>1880.1.1</v>
+        <v>1968.7.22</v>
       </c>
       <c r="E2" t="str">
-        <v>1950.5.6</v>
+        <v>在世</v>
       </c>
       <c r="F2" t="str">
         <v>男</v>
       </c>
       <c r="G2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H2" t="str">
-        <v>无</v>
+        <v>高中</v>
       </c>
       <c r="I2" t="str">
-        <v>不详</v>
+        <v>经商</v>
       </c>
       <c r="J2" t="str">
-        <v>不详</v>
+        <v>陈勇</v>
       </c>
       <c r="K2" t="str">
-        <v>不详</v>
+        <v>张娟</v>
+      </c>
+      <c r="L2" t="str">
+        <v>chenchao</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>陈和</v>
+        <v>陈池</v>
       </c>
       <c r="B3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" t="str">
         <v>广东揭阳</v>
       </c>
       <c r="D3" t="str">
-        <v>1910.3.4</v>
+        <v>1962.6.19</v>
       </c>
       <c r="E3" t="str">
-        <v>1968.2.2</v>
+        <v>在世</v>
       </c>
       <c r="F3" t="str">
         <v>男</v>
       </c>
       <c r="G3">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H3" t="str">
-        <v>无</v>
+        <v>初中</v>
       </c>
       <c r="I3" t="str">
-        <v>不详</v>
+        <v>经商</v>
       </c>
       <c r="J3" t="str">
-        <v>陈风</v>
+        <v>陈永康</v>
       </c>
       <c r="K3" t="str">
-        <v>林凤</v>
+        <v>黄怡</v>
+      </c>
+      <c r="L3" t="str">
+        <v>chenchi</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>陈金</v>
+        <v>陈丹</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C4" t="str">
         <v>广东揭阳</v>
       </c>
       <c r="D4" t="str">
-        <v>1915.9.1</v>
+        <v>1996.6.13</v>
       </c>
       <c r="E4" t="str">
-        <v>1971.10.5</v>
+        <v>在世</v>
       </c>
       <c r="F4" t="str">
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="G4">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H4" t="str">
-        <v>无</v>
+        <v>高中</v>
       </c>
       <c r="I4" t="str">
-        <v>不详</v>
+        <v>经商</v>
       </c>
       <c r="J4" t="str">
-        <v>陈风</v>
+        <v>陈池</v>
       </c>
       <c r="K4" t="str">
-        <v>林凤</v>
+        <v>王妍</v>
+      </c>
+      <c r="L4" t="str">
+        <v>chendan</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
+        <v>陈娥</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+      <c r="C5" t="str">
+        <v>广东深圳</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1967.1.28</v>
+      </c>
+      <c r="E5" t="str">
+        <v>在世</v>
+      </c>
+      <c r="F5" t="str">
+        <v>女</v>
+      </c>
+      <c r="G5">
+        <v>165</v>
+      </c>
+      <c r="H5" t="str">
+        <v>高中</v>
+      </c>
+      <c r="I5" t="str">
+        <v>经商</v>
+      </c>
+      <c r="J5" t="str">
         <v>陈勇</v>
       </c>
-      <c r="B5">
-        <v>62</v>
-      </c>
-      <c r="C5" t="str">
-        <v>广东揭阳</v>
-      </c>
-      <c r="D5" t="str">
-        <v>1930.2.8</v>
-      </c>
-      <c r="E5" t="str">
-        <v>1992.5.7</v>
-      </c>
-      <c r="F5" t="str">
-        <v>男</v>
-      </c>
-      <c r="G5">
-        <v>173</v>
-      </c>
-      <c r="H5" t="str">
-        <v>初中</v>
-      </c>
-      <c r="I5" t="str">
-        <v>医生</v>
-      </c>
-      <c r="J5" t="str">
-        <v>陈和</v>
-      </c>
       <c r="K5" t="str">
-        <v>王雪云</v>
+        <v>张娟</v>
+      </c>
+      <c r="L5" t="str">
+        <v>chene</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>陈玲</v>
+        <v>陈风</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C6" t="str">
         <v>广东揭阳</v>
       </c>
       <c r="D6" t="str">
-        <v>1933.10.8</v>
+        <v>1880.1.1</v>
       </c>
       <c r="E6" t="str">
-        <v>1995.12.12</v>
+        <v>1962.5.6</v>
       </c>
       <c r="F6" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="G6">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="H6" t="str">
-        <v>初中</v>
+        <v>无</v>
       </c>
       <c r="I6" t="str">
-        <v>教师</v>
+        <v>不详</v>
       </c>
       <c r="J6" t="str">
-        <v>陈和</v>
+        <v>不详</v>
       </c>
       <c r="K6" t="str">
-        <v>王雪云</v>
+        <v>不详</v>
+      </c>
+      <c r="L6" t="str">
+        <v>chenfeng</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>陈永康</v>
+        <v>陈和</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C7" t="str">
         <v>广东揭阳</v>
       </c>
       <c r="D7" t="str">
-        <v>1930.5.7</v>
+        <v>1910.3.4</v>
       </c>
       <c r="E7" t="str">
-        <v>1999.3.24</v>
+        <v>1988.2.2</v>
       </c>
       <c r="F7" t="str">
         <v>男</v>
       </c>
       <c r="G7">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H7" t="str">
-        <v>初中</v>
+        <v>无</v>
       </c>
       <c r="I7" t="str">
-        <v>教师</v>
+        <v>不详</v>
       </c>
       <c r="J7" t="str">
-        <v>陈金</v>
+        <v>陈风</v>
       </c>
       <c r="K7" t="str">
-        <v>柯淑仪</v>
+        <v>林凤</v>
+      </c>
+      <c r="L7" t="str">
+        <v>chenhe</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>陈玉凤</v>
+        <v>陈金</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C8" t="str">
         <v>广东揭阳</v>
       </c>
       <c r="D8" t="str">
-        <v>1935.9.15</v>
+        <v>1915.9.1</v>
       </c>
       <c r="E8" t="str">
-        <v>1997.2.18</v>
+        <v>1991.10.5</v>
       </c>
       <c r="F8" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="G8">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H8" t="str">
-        <v>初中</v>
+        <v>无</v>
       </c>
       <c r="I8" t="str">
-        <v>教师</v>
+        <v>不详</v>
       </c>
       <c r="J8" t="str">
-        <v>陈金</v>
+        <v>陈风</v>
       </c>
       <c r="K8" t="str">
-        <v>柯淑仪</v>
+        <v>林凤</v>
+      </c>
+      <c r="L8" t="str">
+        <v>chenjin</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>陈池</v>
+        <v>陈景轩</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C9" t="str">
-        <v>广东揭阳</v>
+        <v>广东广州</v>
       </c>
       <c r="D9" t="str">
-        <v>1962.6.19</v>
+        <v>2019.3.24</v>
       </c>
       <c r="E9" t="str">
         <v>在世</v>
@@ -708,33 +732,36 @@
         <v>男</v>
       </c>
       <c r="G9">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="H9" t="str">
-        <v>初中</v>
+        <v>无</v>
       </c>
       <c r="I9" t="str">
-        <v>经商</v>
+        <v>无</v>
       </c>
       <c r="J9" t="str">
-        <v>陈永康</v>
+        <v>陈晓彬</v>
       </c>
       <c r="K9" t="str">
-        <v>黄怡</v>
+        <v>黄雯</v>
+      </c>
+      <c r="L9" t="str">
+        <v>chenjingxuan</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>陈雄</v>
+        <v>陈凯峰</v>
       </c>
       <c r="B10">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C10" t="str">
         <v>广东揭阳</v>
       </c>
       <c r="D10" t="str">
-        <v>1965.3.28</v>
+        <v>1998.7.25</v>
       </c>
       <c r="E10" t="str">
         <v>在世</v>
@@ -743,103 +770,112 @@
         <v>男</v>
       </c>
       <c r="G10">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H10" t="str">
-        <v>高中</v>
+        <v>大学</v>
       </c>
       <c r="I10" t="str">
-        <v>医生</v>
+        <v>学生</v>
       </c>
       <c r="J10" t="str">
-        <v>陈永康</v>
+        <v>陈雄</v>
       </c>
       <c r="K10" t="str">
-        <v>黄怡</v>
+        <v>林蕊</v>
+      </c>
+      <c r="L10" t="str">
+        <v>chenkaifeng</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>陈娥</v>
+        <v>陈玲</v>
       </c>
       <c r="B11">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C11" t="str">
-        <v>广东揭阳</v>
+        <v>广东广州</v>
       </c>
       <c r="D11" t="str">
-        <v>1967.1.28</v>
+        <v>1933.10.8</v>
       </c>
       <c r="E11" t="str">
-        <v>在世</v>
+        <v>2010.12.12</v>
       </c>
       <c r="F11" t="str">
         <v>女</v>
       </c>
       <c r="G11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H11" t="str">
-        <v>高中</v>
+        <v>初中</v>
       </c>
       <c r="I11" t="str">
-        <v>经商</v>
+        <v>教师</v>
       </c>
       <c r="J11" t="str">
-        <v>陈勇</v>
+        <v>陈和</v>
       </c>
       <c r="K11" t="str">
-        <v>张娟</v>
+        <v>王雪云</v>
+      </c>
+      <c r="L11" t="str">
+        <v>chenling</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>陈潮</v>
+        <v>陈琳琳</v>
       </c>
       <c r="B12">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C12" t="str">
-        <v>广东揭阳</v>
+        <v>广东深圳</v>
       </c>
       <c r="D12" t="str">
-        <v>1968.7.22</v>
+        <v>2001.10.10</v>
       </c>
       <c r="E12" t="str">
         <v>在世</v>
       </c>
       <c r="F12" t="str">
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="G12">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H12" t="str">
-        <v>高中</v>
+        <v>大学</v>
       </c>
       <c r="I12" t="str">
-        <v>经商</v>
+        <v>学生</v>
       </c>
       <c r="J12" t="str">
-        <v>陈勇</v>
+        <v>陈潮</v>
       </c>
       <c r="K12" t="str">
-        <v>张娟</v>
+        <v>范萱</v>
+      </c>
+      <c r="L12" t="str">
+        <v>chenlinlin</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>张三</v>
+        <v>陈荣浩</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" t="str">
-        <v>广东揭阳</v>
+        <v>广东深圳</v>
       </c>
       <c r="D13" t="str">
-        <v>2002.7.24</v>
+        <v>1999.5.13</v>
       </c>
       <c r="E13" t="str">
         <v>在世</v>
@@ -848,24 +884,255 @@
         <v>男</v>
       </c>
       <c r="G13">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H13" t="str">
         <v>大学</v>
       </c>
       <c r="I13" t="str">
-        <v>学生</v>
+        <v>医生</v>
       </c>
       <c r="J13" t="str">
         <v>陈潮</v>
       </c>
       <c r="K13" t="str">
-        <v>黄敏</v>
+        <v>范萱</v>
+      </c>
+      <c r="L13" t="str">
+        <v>chenronghao</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>陈晓彬</v>
+      </c>
+      <c r="B14">
+        <v>31</v>
+      </c>
+      <c r="C14" t="str">
+        <v>广东揭阳</v>
+      </c>
+      <c r="D14" t="str">
+        <v>1991.9.6</v>
+      </c>
+      <c r="E14" t="str">
+        <v>在世</v>
+      </c>
+      <c r="F14" t="str">
+        <v>男</v>
+      </c>
+      <c r="G14">
+        <v>178</v>
+      </c>
+      <c r="H14" t="str">
+        <v>高中</v>
+      </c>
+      <c r="I14" t="str">
+        <v>经商</v>
+      </c>
+      <c r="J14" t="str">
+        <v>陈池</v>
+      </c>
+      <c r="K14" t="str">
+        <v>王妍</v>
+      </c>
+      <c r="L14" t="str">
+        <v>chenxiaobin</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>陈雄</v>
+      </c>
+      <c r="B15">
+        <v>57</v>
+      </c>
+      <c r="C15" t="str">
+        <v>广东揭阳</v>
+      </c>
+      <c r="D15" t="str">
+        <v>1965.3.28</v>
+      </c>
+      <c r="E15" t="str">
+        <v>在世</v>
+      </c>
+      <c r="F15" t="str">
+        <v>男</v>
+      </c>
+      <c r="G15">
+        <v>172</v>
+      </c>
+      <c r="H15" t="str">
+        <v>高中</v>
+      </c>
+      <c r="I15" t="str">
+        <v>医生</v>
+      </c>
+      <c r="J15" t="str">
+        <v>陈永康</v>
+      </c>
+      <c r="K15" t="str">
+        <v>黄怡</v>
+      </c>
+      <c r="L15" t="str">
+        <v>chenxiong</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>陈亦涛</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16" t="str">
+        <v>广东深圳</v>
+      </c>
+      <c r="D16" t="str">
+        <v>1994.2.15</v>
+      </c>
+      <c r="E16" t="str">
+        <v>在世</v>
+      </c>
+      <c r="F16" t="str">
+        <v>男</v>
+      </c>
+      <c r="G16">
+        <v>175</v>
+      </c>
+      <c r="H16" t="str">
+        <v>大学</v>
+      </c>
+      <c r="I16" t="str">
+        <v>程序员</v>
+      </c>
+      <c r="J16" t="str">
+        <v>陈潮</v>
+      </c>
+      <c r="K16" t="str">
+        <v>范萱</v>
+      </c>
+      <c r="L16" t="str">
+        <v>chenyitao</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>陈勇</v>
+      </c>
+      <c r="B17">
+        <v>85</v>
+      </c>
+      <c r="C17" t="str">
+        <v>广东深圳</v>
+      </c>
+      <c r="D17" t="str">
+        <v>1930.2.8</v>
+      </c>
+      <c r="E17" t="str">
+        <v>2015.5.7</v>
+      </c>
+      <c r="F17" t="str">
+        <v>男</v>
+      </c>
+      <c r="G17">
+        <v>173</v>
+      </c>
+      <c r="H17" t="str">
+        <v>初中</v>
+      </c>
+      <c r="I17" t="str">
+        <v>医生</v>
+      </c>
+      <c r="J17" t="str">
+        <v>陈和</v>
+      </c>
+      <c r="K17" t="str">
+        <v>王雪云</v>
+      </c>
+      <c r="L17" t="str">
+        <v>chenyong</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>陈永康</v>
+      </c>
+      <c r="B18">
+        <v>69</v>
+      </c>
+      <c r="C18" t="str">
+        <v>广东揭阳</v>
+      </c>
+      <c r="D18" t="str">
+        <v>1930.5.7</v>
+      </c>
+      <c r="E18" t="str">
+        <v>1999.3.24</v>
+      </c>
+      <c r="F18" t="str">
+        <v>男</v>
+      </c>
+      <c r="G18">
+        <v>176</v>
+      </c>
+      <c r="H18" t="str">
+        <v>初中</v>
+      </c>
+      <c r="I18" t="str">
+        <v>教师</v>
+      </c>
+      <c r="J18" t="str">
+        <v>陈金</v>
+      </c>
+      <c r="K18" t="str">
+        <v>柯淑仪</v>
+      </c>
+      <c r="L18" t="str">
+        <v>chenyongkang</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>陈玉凤</v>
+      </c>
+      <c r="B19">
+        <v>72</v>
+      </c>
+      <c r="C19" t="str">
+        <v>广东深圳</v>
+      </c>
+      <c r="D19" t="str">
+        <v>1935.9.15</v>
+      </c>
+      <c r="E19" t="str">
+        <v>2007.2.18</v>
+      </c>
+      <c r="F19" t="str">
+        <v>女</v>
+      </c>
+      <c r="G19">
+        <v>168</v>
+      </c>
+      <c r="H19" t="str">
+        <v>初中</v>
+      </c>
+      <c r="I19" t="str">
+        <v>教师</v>
+      </c>
+      <c r="J19" t="str">
+        <v>陈金</v>
+      </c>
+      <c r="K19" t="str">
+        <v>柯淑仪</v>
+      </c>
+      <c r="L19" t="str">
+        <v>chenyufeng</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L19"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/server/public/data.xlsx
+++ b/server/public/data.xlsx
@@ -618,10 +618,10 @@
         <v>男</v>
       </c>
       <c r="G6">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H6" t="str">
-        <v>无</v>
+        <v>不详</v>
       </c>
       <c r="I6" t="str">
         <v>不详</v>
@@ -659,7 +659,7 @@
         <v>175</v>
       </c>
       <c r="H7" t="str">
-        <v>无</v>
+        <v>小学</v>
       </c>
       <c r="I7" t="str">
         <v>不详</v>
@@ -697,7 +697,7 @@
         <v>174</v>
       </c>
       <c r="H8" t="str">
-        <v>无</v>
+        <v>小学</v>
       </c>
       <c r="I8" t="str">
         <v>不详</v>
@@ -808,7 +808,7 @@
         <v>女</v>
       </c>
       <c r="G11">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H11" t="str">
         <v>初中</v>
@@ -922,7 +922,7 @@
         <v>男</v>
       </c>
       <c r="G14">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H14" t="str">
         <v>高中</v>

--- a/server/public/data.xlsx
+++ b/server/public/data.xlsx
@@ -403,225 +403,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>age</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>birthplace</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>birthdate</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>deaddate</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>sex</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>height</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>education</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>job</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>father</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>mother</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>spelling</v>
       </c>
+      <c r="N1" t="str">
+        <v>generation</v>
+      </c>
+      <c r="O1" t="str">
+        <v>pid</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2" t="str">
         <v>陈潮</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>54</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
         <v>广东深圳</v>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <v>1968.7.22</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <v>在世</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <v>男</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>173</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <v>高中</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <v>经商</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <v>陈勇</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <v>张娟</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <v>chenchao</v>
       </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3" t="str">
         <v>陈池</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>60</v>
       </c>
-      <c r="C3" t="str">
+      <c r="D3" t="str">
         <v>广东揭阳</v>
       </c>
-      <c r="D3" t="str">
+      <c r="E3" t="str">
         <v>1962.6.19</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <v>在世</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <v>男</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>171</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <v>初中</v>
       </c>
-      <c r="I3" t="str">
+      <c r="J3" t="str">
         <v>经商</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <v>陈永康</v>
       </c>
-      <c r="K3" t="str">
+      <c r="L3" t="str">
         <v>黄怡</v>
       </c>
-      <c r="L3" t="str">
+      <c r="M3" t="str">
         <v>chenchi</v>
       </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" t="str">
         <v>陈丹</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>26</v>
       </c>
-      <c r="C4" t="str">
+      <c r="D4" t="str">
         <v>广东揭阳</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <v>1996.6.13</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <v>在世</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <v>女</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>165</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <v>高中</v>
       </c>
-      <c r="I4" t="str">
+      <c r="J4" t="str">
         <v>经商</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <v>陈池</v>
       </c>
-      <c r="K4" t="str">
+      <c r="L4" t="str">
         <v>王妍</v>
       </c>
-      <c r="L4" t="str">
+      <c r="M4" t="str">
         <v>chendan</v>
       </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="str">
         <v>陈娥</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>55</v>
       </c>
-      <c r="C5" t="str">
+      <c r="D5" t="str">
         <v>广东深圳</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <v>1967.1.28</v>
       </c>
-      <c r="E5" t="str">
+      <c r="F5" t="str">
         <v>在世</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <v>女</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>165</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
         <v>高中</v>
       </c>
-      <c r="I5" t="str">
+      <c r="J5" t="str">
         <v>经商</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <v>陈勇</v>
       </c>
-      <c r="K5" t="str">
+      <c r="L5" t="str">
         <v>张娟</v>
       </c>
-      <c r="L5" t="str">
+      <c r="M5" t="str">
         <v>chene</v>
       </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="str">
         <v>陈风</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>82</v>
       </c>
-      <c r="C6" t="str">
+      <c r="D6" t="str">
         <v>广东揭阳</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <v>1880.1.1</v>
       </c>
-      <c r="E6" t="str">
+      <c r="F6" t="str">
         <v>1962.5.6</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <v>男</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>180</v>
-      </c>
-      <c r="H6" t="str">
-        <v>不详</v>
       </c>
       <c r="I6" t="str">
         <v>不详</v>
@@ -633,520 +678,653 @@
         <v>不详</v>
       </c>
       <c r="L6" t="str">
+        <v>不详</v>
+      </c>
+      <c r="M6" t="str">
         <v>chenfeng</v>
       </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="str">
         <v>陈和</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>78</v>
       </c>
-      <c r="C7" t="str">
+      <c r="D7" t="str">
         <v>广东揭阳</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
         <v>1910.3.4</v>
       </c>
-      <c r="E7" t="str">
+      <c r="F7" t="str">
         <v>1988.2.2</v>
       </c>
-      <c r="F7" t="str">
+      <c r="G7" t="str">
         <v>男</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>175</v>
       </c>
-      <c r="H7" t="str">
+      <c r="I7" t="str">
         <v>小学</v>
       </c>
-      <c r="I7" t="str">
+      <c r="J7" t="str">
         <v>不详</v>
       </c>
-      <c r="J7" t="str">
+      <c r="K7" t="str">
         <v>陈风</v>
       </c>
-      <c r="K7" t="str">
+      <c r="L7" t="str">
         <v>林凤</v>
       </c>
-      <c r="L7" t="str">
+      <c r="M7" t="str">
         <v>chenhe</v>
       </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="str">
         <v>陈金</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>76</v>
       </c>
-      <c r="C8" t="str">
+      <c r="D8" t="str">
         <v>广东揭阳</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <v>1915.9.1</v>
       </c>
-      <c r="E8" t="str">
+      <c r="F8" t="str">
         <v>1991.10.5</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <v>男</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>174</v>
       </c>
-      <c r="H8" t="str">
+      <c r="I8" t="str">
         <v>小学</v>
       </c>
-      <c r="I8" t="str">
+      <c r="J8" t="str">
         <v>不详</v>
       </c>
-      <c r="J8" t="str">
+      <c r="K8" t="str">
         <v>陈风</v>
       </c>
-      <c r="K8" t="str">
+      <c r="L8" t="str">
         <v>林凤</v>
       </c>
-      <c r="L8" t="str">
+      <c r="M8" t="str">
         <v>chenjin</v>
       </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
+      <c r="A9">
+        <v>17</v>
+      </c>
+      <c r="B9" t="str">
         <v>陈景轩</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="C9" t="str">
+      <c r="D9" t="str">
         <v>广东广州</v>
       </c>
-      <c r="D9" t="str">
+      <c r="E9" t="str">
         <v>2019.3.24</v>
       </c>
-      <c r="E9" t="str">
+      <c r="F9" t="str">
         <v>在世</v>
       </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <v>男</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>50</v>
-      </c>
-      <c r="H9" t="str">
-        <v>无</v>
       </c>
       <c r="I9" t="str">
         <v>无</v>
       </c>
       <c r="J9" t="str">
+        <v>无</v>
+      </c>
+      <c r="K9" t="str">
         <v>陈晓彬</v>
       </c>
-      <c r="K9" t="str">
+      <c r="L9" t="str">
         <v>黄雯</v>
       </c>
-      <c r="L9" t="str">
+      <c r="M9" t="str">
         <v>chenjingxuan</v>
       </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10" t="str">
         <v>陈凯峰</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>24</v>
       </c>
-      <c r="C10" t="str">
+      <c r="D10" t="str">
         <v>广东揭阳</v>
       </c>
-      <c r="D10" t="str">
+      <c r="E10" t="str">
         <v>1998.7.25</v>
       </c>
-      <c r="E10" t="str">
+      <c r="F10" t="str">
         <v>在世</v>
       </c>
-      <c r="F10" t="str">
+      <c r="G10" t="str">
         <v>男</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>173</v>
       </c>
-      <c r="H10" t="str">
+      <c r="I10" t="str">
         <v>大学</v>
       </c>
-      <c r="I10" t="str">
+      <c r="J10" t="str">
         <v>学生</v>
       </c>
-      <c r="J10" t="str">
+      <c r="K10" t="str">
         <v>陈雄</v>
       </c>
-      <c r="K10" t="str">
+      <c r="L10" t="str">
         <v>林蕊</v>
       </c>
-      <c r="L10" t="str">
+      <c r="M10" t="str">
         <v>chenkaifeng</v>
       </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="str">
         <v>陈玲</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>77</v>
       </c>
-      <c r="C11" t="str">
+      <c r="D11" t="str">
         <v>广东广州</v>
       </c>
-      <c r="D11" t="str">
+      <c r="E11" t="str">
         <v>1933.10.8</v>
       </c>
-      <c r="E11" t="str">
+      <c r="F11" t="str">
         <v>2010.12.12</v>
       </c>
-      <c r="F11" t="str">
+      <c r="G11" t="str">
         <v>女</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>159</v>
       </c>
-      <c r="H11" t="str">
+      <c r="I11" t="str">
         <v>初中</v>
       </c>
-      <c r="I11" t="str">
+      <c r="J11" t="str">
         <v>教师</v>
       </c>
-      <c r="J11" t="str">
+      <c r="K11" t="str">
         <v>陈和</v>
       </c>
-      <c r="K11" t="str">
+      <c r="L11" t="str">
         <v>王雪云</v>
       </c>
-      <c r="L11" t="str">
+      <c r="M11" t="str">
         <v>chenling</v>
       </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="str">
         <v>陈琳琳</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>21</v>
       </c>
-      <c r="C12" t="str">
+      <c r="D12" t="str">
         <v>广东深圳</v>
       </c>
-      <c r="D12" t="str">
+      <c r="E12" t="str">
         <v>2001.10.10</v>
       </c>
-      <c r="E12" t="str">
+      <c r="F12" t="str">
         <v>在世</v>
       </c>
-      <c r="F12" t="str">
+      <c r="G12" t="str">
         <v>女</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>168</v>
       </c>
-      <c r="H12" t="str">
+      <c r="I12" t="str">
         <v>大学</v>
       </c>
-      <c r="I12" t="str">
+      <c r="J12" t="str">
         <v>学生</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K12" t="str">
         <v>陈潮</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L12" t="str">
         <v>范萱</v>
       </c>
-      <c r="L12" t="str">
+      <c r="M12" t="str">
         <v>chenlinlin</v>
       </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>8</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
         <v>陈荣浩</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>23</v>
       </c>
-      <c r="C13" t="str">
+      <c r="D13" t="str">
         <v>广东深圳</v>
       </c>
-      <c r="D13" t="str">
+      <c r="E13" t="str">
         <v>1999.5.13</v>
       </c>
-      <c r="E13" t="str">
+      <c r="F13" t="str">
         <v>在世</v>
       </c>
-      <c r="F13" t="str">
+      <c r="G13" t="str">
         <v>男</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>174</v>
       </c>
-      <c r="H13" t="str">
+      <c r="I13" t="str">
         <v>大学</v>
       </c>
-      <c r="I13" t="str">
+      <c r="J13" t="str">
         <v>医生</v>
       </c>
-      <c r="J13" t="str">
+      <c r="K13" t="str">
         <v>陈潮</v>
       </c>
-      <c r="K13" t="str">
+      <c r="L13" t="str">
         <v>范萱</v>
       </c>
-      <c r="L13" t="str">
+      <c r="M13" t="str">
         <v>chenronghao</v>
       </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>8</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="str">
         <v>陈晓彬</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>31</v>
       </c>
-      <c r="C14" t="str">
+      <c r="D14" t="str">
         <v>广东揭阳</v>
       </c>
-      <c r="D14" t="str">
+      <c r="E14" t="str">
         <v>1991.9.6</v>
       </c>
-      <c r="E14" t="str">
+      <c r="F14" t="str">
         <v>在世</v>
       </c>
-      <c r="F14" t="str">
+      <c r="G14" t="str">
         <v>男</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>182</v>
       </c>
-      <c r="H14" t="str">
+      <c r="I14" t="str">
         <v>高中</v>
       </c>
-      <c r="I14" t="str">
+      <c r="J14" t="str">
         <v>经商</v>
       </c>
-      <c r="J14" t="str">
+      <c r="K14" t="str">
         <v>陈池</v>
       </c>
-      <c r="K14" t="str">
+      <c r="L14" t="str">
         <v>王妍</v>
       </c>
-      <c r="L14" t="str">
+      <c r="M14" t="str">
         <v>chenxiaobin</v>
       </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>9</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="str">
         <v>陈雄</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>57</v>
       </c>
-      <c r="C15" t="str">
+      <c r="D15" t="str">
         <v>广东揭阳</v>
       </c>
-      <c r="D15" t="str">
+      <c r="E15" t="str">
         <v>1965.3.28</v>
       </c>
-      <c r="E15" t="str">
+      <c r="F15" t="str">
         <v>在世</v>
       </c>
-      <c r="F15" t="str">
+      <c r="G15" t="str">
         <v>男</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>172</v>
       </c>
-      <c r="H15" t="str">
+      <c r="I15" t="str">
         <v>高中</v>
       </c>
-      <c r="I15" t="str">
+      <c r="J15" t="str">
         <v>医生</v>
       </c>
-      <c r="J15" t="str">
+      <c r="K15" t="str">
         <v>陈永康</v>
       </c>
-      <c r="K15" t="str">
+      <c r="L15" t="str">
         <v>黄怡</v>
       </c>
-      <c r="L15" t="str">
+      <c r="M15" t="str">
         <v>chenxiong</v>
       </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="str">
         <v>陈亦涛</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>28</v>
       </c>
-      <c r="C16" t="str">
+      <c r="D16" t="str">
         <v>广东深圳</v>
       </c>
-      <c r="D16" t="str">
+      <c r="E16" t="str">
         <v>1994.2.15</v>
       </c>
-      <c r="E16" t="str">
+      <c r="F16" t="str">
         <v>在世</v>
       </c>
-      <c r="F16" t="str">
+      <c r="G16" t="str">
         <v>男</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>175</v>
       </c>
-      <c r="H16" t="str">
+      <c r="I16" t="str">
         <v>大学</v>
       </c>
-      <c r="I16" t="str">
+      <c r="J16" t="str">
         <v>程序员</v>
       </c>
-      <c r="J16" t="str">
+      <c r="K16" t="str">
         <v>陈潮</v>
       </c>
-      <c r="K16" t="str">
+      <c r="L16" t="str">
         <v>范萱</v>
       </c>
-      <c r="L16" t="str">
+      <c r="M16" t="str">
         <v>chenyitao</v>
       </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>8</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="str">
         <v>陈勇</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>85</v>
       </c>
-      <c r="C17" t="str">
+      <c r="D17" t="str">
         <v>广东深圳</v>
       </c>
-      <c r="D17" t="str">
+      <c r="E17" t="str">
         <v>1930.2.8</v>
       </c>
-      <c r="E17" t="str">
+      <c r="F17" t="str">
         <v>2015.5.7</v>
       </c>
-      <c r="F17" t="str">
+      <c r="G17" t="str">
         <v>男</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>173</v>
       </c>
-      <c r="H17" t="str">
+      <c r="I17" t="str">
         <v>初中</v>
       </c>
-      <c r="I17" t="str">
+      <c r="J17" t="str">
         <v>医生</v>
       </c>
-      <c r="J17" t="str">
+      <c r="K17" t="str">
         <v>陈和</v>
       </c>
-      <c r="K17" t="str">
+      <c r="L17" t="str">
         <v>王雪云</v>
       </c>
-      <c r="L17" t="str">
+      <c r="M17" t="str">
         <v>chenyong</v>
       </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="str">
         <v>陈永康</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>69</v>
       </c>
-      <c r="C18" t="str">
+      <c r="D18" t="str">
         <v>广东揭阳</v>
       </c>
-      <c r="D18" t="str">
+      <c r="E18" t="str">
         <v>1930.5.7</v>
       </c>
-      <c r="E18" t="str">
+      <c r="F18" t="str">
         <v>1999.3.24</v>
       </c>
-      <c r="F18" t="str">
+      <c r="G18" t="str">
         <v>男</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>176</v>
       </c>
-      <c r="H18" t="str">
+      <c r="I18" t="str">
         <v>初中</v>
       </c>
-      <c r="I18" t="str">
+      <c r="J18" t="str">
         <v>教师</v>
       </c>
-      <c r="J18" t="str">
+      <c r="K18" t="str">
         <v>陈金</v>
       </c>
-      <c r="K18" t="str">
+      <c r="L18" t="str">
         <v>柯淑仪</v>
       </c>
-      <c r="L18" t="str">
+      <c r="M18" t="str">
         <v>chenyongkang</v>
       </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="str">
         <v>陈玉凤</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>72</v>
       </c>
-      <c r="C19" t="str">
+      <c r="D19" t="str">
         <v>广东深圳</v>
       </c>
-      <c r="D19" t="str">
+      <c r="E19" t="str">
         <v>1935.9.15</v>
       </c>
-      <c r="E19" t="str">
+      <c r="F19" t="str">
         <v>2007.2.18</v>
       </c>
-      <c r="F19" t="str">
+      <c r="G19" t="str">
         <v>女</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>168</v>
       </c>
-      <c r="H19" t="str">
+      <c r="I19" t="str">
         <v>初中</v>
       </c>
-      <c r="I19" t="str">
+      <c r="J19" t="str">
         <v>教师</v>
       </c>
-      <c r="J19" t="str">
+      <c r="K19" t="str">
         <v>陈金</v>
       </c>
-      <c r="K19" t="str">
+      <c r="L19" t="str">
         <v>柯淑仪</v>
       </c>
-      <c r="L19" t="str">
+      <c r="M19" t="str">
         <v>chenyufeng</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L19"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O19"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>maxId</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A2"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/server/public/data.xlsx
+++ b/server/public/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="160">
   <si>
     <t>id</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>pid</t>
+  </si>
+  <si>
+    <t>descendants</t>
   </si>
   <si>
     <t>陈冰冰</t>
@@ -500,10 +503,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -511,28 +514,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -551,7 +532,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,11 +584,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -585,14 +603,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -612,8 +622,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,15 +645,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,17 +661,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,7 +677,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,7 +707,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,37 +767,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +785,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,67 +839,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,37 +857,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,6 +868,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -927,30 +945,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -965,55 +959,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1022,94 +1019,100 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1498,15 +1501,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1549,1454 +1552,1556 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>170</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>173</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H4">
         <v>171</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>165</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>165</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7">
         <v>180</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>51</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8">
         <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8">
         <v>175</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H9">
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N9">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>168</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N10">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H11">
         <v>178</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12">
         <v>174</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13">
         <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N13">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14">
         <v>182</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N14">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15">
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H15">
         <v>173</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H16">
         <v>173</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C17">
         <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17">
         <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18">
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18">
         <v>168</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19">
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H19">
         <v>174</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20">
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H20">
         <v>178</v>
       </c>
       <c r="I20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C21">
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H21">
         <v>179</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N21">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H22">
         <v>181</v>
       </c>
       <c r="I22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N22">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H23">
         <v>175</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24">
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H24">
         <v>182</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N24">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H25">
         <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N25">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C26">
         <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H26">
         <v>169</v>
       </c>
       <c r="I26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N26">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27">
         <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H27">
         <v>172</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C28">
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H28">
         <v>169</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N28">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H29">
         <v>175</v>
       </c>
       <c r="I29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N29">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H30">
         <v>173</v>
       </c>
       <c r="I30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31">
         <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H31">
         <v>176</v>
       </c>
       <c r="I31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C32">
         <v>72</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H32">
         <v>168</v>
       </c>
       <c r="I32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H33">
         <v>60</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N33">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H34">
         <v>75</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N34">
         <v>12</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3021,7 +3126,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/server/public/data.xlsx
+++ b/server/public/data.xlsx
@@ -478,7 +478,7 @@
         <v>女</v>
       </c>
       <c r="H2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I2" t="str">
         <v>高中</v>

--- a/server/public/data.xlsx
+++ b/server/public/data.xlsx
@@ -481,7 +481,7 @@
         <v>171</v>
       </c>
       <c r="I2" t="str">
-        <v>高中</v>
+        <v>大学</v>
       </c>
       <c r="J2" t="str">
         <v>教师</v>
@@ -1060,7 +1060,7 @@
         <v>23</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1107,7 +1107,7 @@
         <v>10</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1682,7 +1682,7 @@
         <v>陈一</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" t="str">
         <v>广东深圳</v>
@@ -1911,19 +1911,19 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B33" t="str">
-        <v>陈镇宇</v>
+        <v>陈子豪</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" t="str">
-        <v>广东深圳</v>
+        <v>广东广州</v>
       </c>
       <c r="E33" t="str">
-        <v>2021.4.9</v>
+        <v>2019.4.6</v>
       </c>
       <c r="F33" t="str">
         <v>在世</v>
@@ -1932,7 +1932,7 @@
         <v>男</v>
       </c>
       <c r="H33">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I33" t="str">
         <v>无</v>
@@ -1941,16 +1941,16 @@
         <v>无</v>
       </c>
       <c r="K33" t="str">
-        <v>陈俊琦</v>
+        <v>陈荣浩</v>
       </c>
       <c r="L33" t="str">
-        <v>林爽</v>
+        <v>林茵</v>
       </c>
       <c r="M33" t="str">
-        <v>chenzhenyu</v>
+        <v>chenzihao</v>
       </c>
       <c r="N33">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -1958,19 +1958,19 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B34" t="str">
-        <v>陈子豪</v>
+        <v>张三</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="str">
-        <v>广东广州</v>
+        <v>广东深圳</v>
       </c>
       <c r="E34" t="str">
-        <v>2019.4.6</v>
+        <v>2022.4.6</v>
       </c>
       <c r="F34" t="str">
         <v>在世</v>
@@ -1979,7 +1979,7 @@
         <v>男</v>
       </c>
       <c r="H34">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I34" t="str">
         <v>无</v>
@@ -1988,16 +1988,16 @@
         <v>无</v>
       </c>
       <c r="K34" t="str">
-        <v>陈荣浩</v>
+        <v>陈凯峰</v>
       </c>
       <c r="L34" t="str">
-        <v>林茵</v>
+        <v>李四</v>
       </c>
       <c r="M34" t="str">
-        <v>chenzihao</v>
+        <v>zhangsan</v>
       </c>
       <c r="N34">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
